--- a/data/tab_DecEst8468.xlsx
+++ b/data/tab_DecEst8468.xlsx
@@ -46,25 +46,7 @@
     <t xml:space="preserve">norma_referencia</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">norma_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">texto</t>
-    </r>
+    <t xml:space="preserve">norma_texto</t>
   </si>
   <si>
     <t xml:space="preserve">Classe 1</t>
@@ -79,25 +61,7 @@
     <t xml:space="preserve">mg/l de N </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Item 1, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Art. 10</t>
-    </r>
+    <t xml:space="preserve">Item 1, Art. 10</t>
   </si>
   <si>
     <t xml:space="preserve">Amônia - 0,5 mg/l de N (cinco décimos de miligrama de Nitrogênio por litro)</t>
@@ -259,808 +223,124 @@
     <t xml:space="preserve">Classe 2</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Item 1, Alínea d, Inciso I, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Art. 11</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Item 2, Alínea d, Inciso I, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Art. 11</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Item 3, Alínea d, Inciso I, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Art. 11</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Item 4, Alínea d, Inciso I, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Art. 11</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Item 5, Alínea d, Inciso I, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Art. 11</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Item 6, Alínea d, Inciso I, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Art. 11</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Item 7, Alínea d, Inciso I, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Art. 11</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Item 8, Alínea d, Inciso I, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Art. 11</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Item 9, Alínea d, Inciso I, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Art. 11</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Item 10, Alínea d, Inciso I, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Art. 11</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Item 11, Alínea d, Inciso I, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Art. 11</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Item 12, Alínea d, Inciso I, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Art. 11</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Item 13, Alínea d, Inciso I, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Art. 11</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Item 14, Alínea d, Inciso I, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Art. 11</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Item 15, Alínea d, Inciso I, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Art. 11</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Item 16, Alínea d, Inciso I, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Art. 11</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Inciso III, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Art. 11</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Inciso IV, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Art. 11</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Inciso V, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Art. 11</t>
-    </r>
+    <t xml:space="preserve">Item 1, Alínea d, Inciso I, Art. 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item 2, Alínea d, Inciso I, Art. 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item 3, Alínea d, Inciso I, Art. 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item 4, Alínea d, Inciso I, Art. 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item 5, Alínea d, Inciso I, Art. 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item 6, Alínea d, Inciso I, Art. 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item 7, Alínea d, Inciso I, Art. 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item 8, Alínea d, Inciso I, Art. 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item 9, Alínea d, Inciso I, Art. 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item 10, Alínea d, Inciso I, Art. 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item 11, Alínea d, Inciso I, Art. 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item 12, Alínea d, Inciso I, Art. 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item 13, Alínea d, Inciso I, Art. 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item 14, Alínea d, Inciso I, Art. 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item 15, Alínea d, Inciso I, Art. 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item 16, Alínea d, Inciso I, Art. 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inciso III, Art. 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inciso IV, Art. 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inciso V, Art. 11</t>
   </si>
   <si>
     <t xml:space="preserve">Classe 3</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Item 1, Alínea d, Inciso I, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Art. 12</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Item 2, Alínea d, Inciso I, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Art. 12</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Item 3, Alínea d, Inciso I, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Art. 12</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Item 4, Alínea d, Inciso I, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Art. 12</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Item 5, Alínea d, Inciso I, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Art. 12</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Item 6, Alínea d, Inciso I, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Art. 12</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Item 7, Alínea d, Inciso I, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Art. 12</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Item 8, Alínea d, Inciso I, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Art. 12</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Item 9, Alínea d, Inciso I, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Art. 12</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Item 10, Alínea d, Inciso I, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Art. 12</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Item 11, Alínea d, Inciso I, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Art. 12</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Item 12, Alínea d, Inciso I, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Art. 12</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Item 13, Alínea d, Inciso I, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Art. 12</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Item 14, Alínea d, Inciso I, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Art. 12</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Item 15, Alínea d, Inciso I, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Art. 12</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Item 16, Alínea d, Inciso I, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Art. 12</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Inciso III, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Art. 12</t>
-    </r>
+    <t xml:space="preserve">Item 1, Alínea d, Inciso I, Art. 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item 2, Alínea d, Inciso I, Art. 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item 3, Alínea d, Inciso I, Art. 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item 4, Alínea d, Inciso I, Art. 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item 5, Alínea d, Inciso I, Art. 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item 6, Alínea d, Inciso I, Art. 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item 7, Alínea d, Inciso I, Art. 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item 8, Alínea d, Inciso I, Art. 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item 9, Alínea d, Inciso I, Art. 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item 10, Alínea d, Inciso I, Art. 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item 11, Alínea d, Inciso I, Art. 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item 12, Alínea d, Inciso I, Art. 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item 13, Alínea d, Inciso I, Art. 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item 14, Alínea d, Inciso I, Art. 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item 15, Alínea d, Inciso I, Art. 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item 16, Alínea d, Inciso I, Art. 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inciso III, Art. 12</t>
   </si>
   <si>
     <t xml:space="preserve">Número Mais Provável (NMP) de coliformes até 20.000 (vinte mil), sendo 4.000 (quatro mil) o limite para os de origem fecal, em 100 ml (cem mililitros), para 80% (oitenta por cento) de, pelo menos, 5 (cinco) amostras colhidas num período de até 5 (cinco) semanas consecutivas</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Inciso IV, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Art. 12</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Inciso V, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Art. 12</t>
-    </r>
+    <t xml:space="preserve">Inciso IV, Art. 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inciso V, Art. 12</t>
   </si>
   <si>
     <t xml:space="preserve">Oxigênio Dissolvido (OD), em qualquer amostra, não inferior a 4 mg/l (quatro miligramas por litro)</t>
@@ -1069,49 +349,13 @@
     <t xml:space="preserve">Classe 4</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Inciso III, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Art. 13</t>
-    </r>
+    <t xml:space="preserve">Inciso III, Art. 13</t>
   </si>
   <si>
     <t xml:space="preserve">Fenóis, até 1,0 mg/l (um miligrama por litro)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Inciso IV, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Art. 13</t>
-    </r>
+    <t xml:space="preserve">Inciso IV, Art. 13</t>
   </si>
   <si>
     <t xml:space="preserve">Oxigênio Dissolvido (OD), superior a 0,5 mg/l (cinco décimos de miligrama por litro) em qualquer amostra</t>
@@ -1124,7 +368,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1146,12 +390,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1201,7 +439,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1224,15 +462,15 @@
   </sheetPr>
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B58" activeCellId="0" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.86"/>
@@ -2743,7 +1981,7 @@
       <c r="D60" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F60" s="0" t="n">
+      <c r="E60" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="G60" s="0" t="s">
